--- a/medicine/Mort/Nécropole_nationale_de_Saint-Quentin/Nécropole_nationale_de_Saint-Quentin.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Saint-Quentin/Nécropole_nationale_de_Saint-Quentin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Quentin</t>
+          <t>Nécropole_nationale_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Saint-Quentin est un cimetière militaire français de la Première Guerre mondiale et de la Seconde Guerre mondiale au nord-ouest du territoire de la commune de Saint-Quentin dans le département de l'Aisne, en bordure de la RD 929 - E44 reliant Saint-Quentin à Amiens[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Saint-Quentin est un cimetière militaire français de la Première Guerre mondiale et de la Seconde Guerre mondiale au nord-ouest du territoire de la commune de Saint-Quentin dans le département de l'Aisne, en bordure de la RD 929 - E44 reliant Saint-Quentin à Amiens,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Quentin</t>
+          <t>Nécropole_nationale_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première Guerre mondiale
-La guerre dans l'Aisne se situait dans le contexte de la bataille de Guise du 28 au 30 août 1918 et, plus tard, pendant les mois d'octobre et novembre 1918. 
-Les troupes allemandes occupent Saint-Quentin du 28 août au 2 octobre 1918. À Saint-Quentin, il y avait des hôpitaux. Les troupes allemandes avaient stationné à Saint-Quentin 2 000 prisonniers russes pour assurer la défense de la ville[3].
-Seconde Guerre mondiale
-De septembre 1939 à juin 1940, le deuxième régiment marocain de Spahis marcha contre les troupes allemandes. Il y eut beaucoup[Combien ?] de morts[3].
+          <t>Première Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guerre dans l'Aisne se situait dans le contexte de la bataille de Guise du 28 au 30 août 1918 et, plus tard, pendant les mois d'octobre et novembre 1918. 
+Les troupes allemandes occupent Saint-Quentin du 28 août au 2 octobre 1918. À Saint-Quentin, il y avait des hôpitaux. Les troupes allemandes avaient stationné à Saint-Quentin 2 000 prisonniers russes pour assurer la défense de la ville.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Quentin</t>
+          <t>Nécropole_nationale_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Le cimetière</t>
+          <t>La guerre dans l'Aisne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce cimetière militaire est édifié en 1923 et aménagé en 1934 et 1935. En 1954, on y inhume des soldats français morts pendant la Seconde Guerre mondiale.
-La nécropole regroupe, sur une superficie de 1,76 ha, les corps de soldats inhumés précédemment dans de petits cimetières militaires de la ville et des environs.
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De septembre 1939 à juin 1940, le deuxième régiment marocain de Spahis marcha contre les troupes allemandes. Il y eut beaucoup[Combien ?] de morts.
 </t>
         </is>
       </c>
@@ -560,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Saint-Quentin</t>
+          <t>Nécropole_nationale_de_Saint-Quentin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le cimetière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière militaire est édifié en 1923 et aménagé en 1934 et 1935. En 1954, on y inhume des soldats français morts pendant la Seconde Guerre mondiale.
+La nécropole regroupe, sur une superficie de 1,76 ha, les corps de soldats inhumés précédemment dans de petits cimetières militaires de la ville et des environs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Saint-Quentin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les morts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 273 corps reposent dans ce cimetière, 3 954 dans des tombes individuelles et 1 319 dans des ossuaires. Parmi eux se trouvent également les corps de 2 Roumains, de 117 Russes, ainsi que ceux de 217 Français tués au cours de la Seconde Guerre mondiale dont les corps ont été rapatriés de différents lieux du département de l'Aisne[1],[4].
-Il y a une liste des noms des morts[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 273 corps reposent dans ce cimetière, 3 954 dans des tombes individuelles et 1 319 dans des ossuaires. Parmi eux se trouvent également les corps de 2 Roumains, de 117 Russes, ainsi que ceux de 217 Français tués au cours de la Seconde Guerre mondiale dont les corps ont été rapatriés de différents lieux du département de l'Aisne,.
+Il y a une liste des noms des morts.
 </t>
         </is>
       </c>
